--- a/biology/Botanique/Proles/Proles.xlsx
+++ b/biology/Botanique/Proles/Proles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le proles désignait dans le domaine de la taxinomie[1], de la botanique, ou pour les ampélographes, un rang taxinomique synonyme de celui de race (dénomination plus récente). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le proles désignait dans le domaine de la taxinomie, de la botanique, ou pour les ampélographes, un rang taxinomique synonyme de celui de race (dénomination plus récente). 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XIXe siècle, Georges Rouy, ancien Vice-Président de la Société botanique de France, et Julien Foucaud, chef du jardin Botanique de la Marine à Rochefort (Charente-Maritime), classaient les espèces au moyen de quatre catégories infraspécifiques : 
 Sous-espèce (subspecies),
@@ -547,10 +561,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le proles était donc un rang taxinomique infraspécifique (en dessous du niveau de l'espèce, situé entre la variété (var.) et la sous-espèce (subsp.) [2]. 
-Des confusions existaient car pour Rouy et Foucaud le mot forme était « synonyme de celui de race en horticulture » [1] et décrivait un niveau de classification supérieur à celui de la variété car « plus stable et se reproduisant généralement telle quelle »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le proles était donc un rang taxinomique infraspécifique (en dessous du niveau de l'espèce, situé entre la variété (var.) et la sous-espèce (subsp.) . 
+Des confusions existaient car pour Rouy et Foucaud le mot forme était « synonyme de celui de race en horticulture »  et décrivait un niveau de classification supérieur à celui de la variété car « plus stable et se reproduisant généralement telle quelle ».
 Ce mot peut être associé au nom de genre et d'espèces décrivant un taxon.
 </t>
         </is>
@@ -580,7 +596,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de la vigne, l'ampélographe russe A. M. Negrul a déterminé trois grands groupes écolo-géographiques de cépages qu'il considère chacun comme un proles.
 </t>
